--- a/dfir-installer-selector.xlsx
+++ b/dfir-installer-selector.xlsx
@@ -1223,7 +1223,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1251,11 +1251,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1313,7 +1308,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1461,16 +1456,16 @@
   </sheetPr>
   <dimension ref="A1:B355"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A224" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B236" activeCellId="0" sqref="B236"/>
+      <selection pane="bottomLeft" activeCell="B51" activeCellId="0" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="35.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.84"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1870,7 +1865,7 @@
         <v>55</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/dfir-installer-selector.xlsx
+++ b/dfir-installer-selector.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="464">
   <si>
     <t xml:space="preserve">Tool</t>
   </si>
@@ -1214,6 +1214,204 @@
   </si>
   <si>
     <t xml:space="preserve">iisGeoLocate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AirCrack-NG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AngryIPScanner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AshampooBUPro15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BurnInTest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ClamAVWin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comae-Toolkit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dfir-installer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DirectoryOpus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EditPadLite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSmartControl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hasher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAPE-Big</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kernel-document-viewer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kernel-emlx-viewer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kernel-sql-backup-recovery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kernel-sql-viewer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kernel-sqlite-viewer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kernel-vhd-vhdx-viewer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kernel-vmdk-recovery-demo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kernel-windows-data-recovery-free</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kernel-xps-viewer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kernelbasedemo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kernelbkf-viewer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kernelbulkimageresizer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kernelcalcdemo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kerneldbx-viewer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kerneldrawdemo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kernelemlviewer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kernelexchange-edb-viewer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kernelexchangetogroup64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kernelforexchangetonotes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kernelfreekernelolmviewer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kernelfreekerneloutlookpstreporter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kernelgrptonotes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kernelimpressdemo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kernelmathsdemo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kernelmboxviewer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kernelmdb-viewer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kernelmdf-viewer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kernelnotestogrp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kernelnotestopdfdemo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kernelnsf-viewer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kernelnst-viewer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kernelNucleus-IE-Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kernelNucleus-Kernel-DBX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kernelNucleus-Kernel-Excel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kernelNucleus-Kernel-IncrediMail-Demo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kernelNucleus-Kernel-Paradox-Demo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kernelNucleus-MSN-Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kernelNucleus-PST-Password-Demo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kerneloetonotes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KernelPasswordUnmask</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kernelprojectserver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kernelpstadd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kernelwriterdemo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kernelyahooarchive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LM-Studio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NirSoft-Launcher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SamSpade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SecureRM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TotalCommander</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VisualStudioCommunityEdition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volatility-Workbench</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W10Privacy</t>
   </si>
 </sst>
 </file>
@@ -1454,12 +1652,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B355"/>
+  <dimension ref="A1:B421"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A406" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B51" activeCellId="0" sqref="B51"/>
+      <selection pane="bottomLeft" activeCell="G415" activeCellId="0" sqref="G415"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4306,6 +4504,534 @@
       </c>
       <c r="B355" s="1" t="s">
         <v>376</v>
+      </c>
+    </row>
+    <row r="356" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A356" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="357" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A357" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="358" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A358" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="359" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A359" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="360" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A360" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="361" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A361" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="362" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A362" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="363" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A363" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="364" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A364" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="365" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A365" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="366" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A366" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="367" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A367" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="368" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A368" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="369" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A369" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="370" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A370" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="371" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A371" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="372" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A372" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="373" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A373" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="374" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A374" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="375" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A375" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="376" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A376" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="377" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A377" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="378" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A378" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="379" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A379" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B379" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="380" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A380" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="381" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A381" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="382" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A382" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="383" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A383" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B383" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="384" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A384" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="385" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A385" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B385" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="386" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A386" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B386" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="387" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A387" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="388" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A388" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="389" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A389" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B389" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="390" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A390" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="391" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A391" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B391" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="392" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A392" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="393" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A393" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="394" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A394" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="395" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A395" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B395" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="396" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A396" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B396" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="397" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A397" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B397" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="398" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A398" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="399" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A399" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="400" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A400" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="401" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A401" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B401" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="402" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A402" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="403" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A403" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B403" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="404" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A404" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="405" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A405" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B405" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="406" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A406" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="407" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A407" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B407" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="408" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A408" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="409" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A409" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="410" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A410" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="411" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A411" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="412" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A412" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="413" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A413" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="414" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A414" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="415" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A415" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B415" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="416" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A416" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="417" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A417" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B417" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="418" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A418" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B418" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="419" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A419" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B419" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="420" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A420" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B420" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="421" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A421" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B421" s="1" t="s">
+        <v>355</v>
       </c>
     </row>
   </sheetData>

--- a/dfir-installer-selector.xlsx
+++ b/dfir-installer-selector.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\dfir-installer-selector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B621A3-2720-4F2B-9C20-2C694F4A29F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC2B7E3-AD45-4E7D-816F-341FF05E0E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6816" yWindow="1260" windowWidth="30960" windowHeight="12120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1364,7 +1364,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:B312" totalsRowShown="0">
   <autoFilter ref="A1:B312" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B312">
-    <sortCondition ref="B1:B312"/>
+    <sortCondition ref="A1:A312"/>
   </sortState>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Tool"/>
@@ -1487,8 +1487,8 @@
   <dimension ref="A1:B381"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A193" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A209" sqref="A209"/>
+      <pane ySplit="1" topLeftCell="A353" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A361" sqref="A361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1507,135 +1507,135 @@
     </row>
     <row r="2" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>129</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>206</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>161</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>180</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>3</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>235</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>190</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>3</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>236</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>237</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>238</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>11</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>124</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>240</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>11</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>239</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>11</v>
+        <v>234</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>126</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>127</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>11</v>
@@ -1643,63 +1643,63 @@
     </row>
     <row r="19" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>241</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>11</v>
+        <v>234</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>294</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>11</v>
+        <v>295</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>296</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>11</v>
+        <v>295</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>208</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>11</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>280</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>11</v>
+        <v>281</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>11</v>
@@ -1707,143 +1707,143 @@
     </row>
     <row r="27" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>209</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>11</v>
+        <v>207</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>242</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>11</v>
+        <v>234</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>148</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>11</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>150</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>11</v>
+        <v>149</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>275</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>11</v>
+        <v>276</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>326</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>40</v>
+        <v>327</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>314</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>40</v>
+        <v>315</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>316</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>40</v>
+        <v>315</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>331</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>44</v>
+        <v>332</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>328</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>44</v>
+        <v>327</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>342</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>47</v>
+        <v>343</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>47</v>
@@ -1851,39 +1851,39 @@
     </row>
     <row r="45" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>243</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>47</v>
+        <v>234</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>244</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>47</v>
+        <v>234</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>308</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>47</v>
+        <v>309</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>47</v>
@@ -1891,415 +1891,415 @@
     </row>
     <row r="50" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>151</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>47</v>
+        <v>149</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>131</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>47</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>245</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>47</v>
+        <v>234</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>163</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>60</v>
+        <v>162</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>61</v>
+        <v>246</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>60</v>
+        <v>234</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>62</v>
+        <v>247</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>60</v>
+        <v>234</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>63</v>
+        <v>248</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>60</v>
+        <v>234</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>64</v>
+        <v>277</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>60</v>
+        <v>276</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>65</v>
+        <v>333</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>66</v>
+        <v>332</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>67</v>
+        <v>132</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>66</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>68</v>
+        <v>133</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>66</v>
+        <v>130</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>69</v>
+        <v>249</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>66</v>
+        <v>234</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>71</v>
+        <v>344</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>66</v>
+        <v>343</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>73</v>
+        <v>4</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>66</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>66</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>77</v>
+        <v>182</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>76</v>
+        <v>181</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>83</v>
+        <v>282</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>80</v>
+        <v>281</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>85</v>
+        <v>250</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>80</v>
+        <v>234</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>86</v>
+        <v>251</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>80</v>
+        <v>234</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>88</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>88</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>90</v>
+        <v>311</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>88</v>
+        <v>312</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>91</v>
+        <v>313</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>88</v>
+        <v>312</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>92</v>
+        <v>6</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>93</v>
+        <v>297</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>88</v>
+        <v>295</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>94</v>
+        <v>192</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>88</v>
+        <v>191</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>95</v>
+        <v>252</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>88</v>
+        <v>234</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>96</v>
+        <v>193</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>88</v>
+        <v>191</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>99</v>
+        <v>164</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>98</v>
+        <v>162</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>100</v>
+        <v>186</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>98</v>
+        <v>187</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>101</v>
+        <v>189</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>98</v>
+        <v>187</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>102</v>
+        <v>188</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>98</v>
+        <v>187</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>104</v>
+        <v>66</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>106</v>
+        <v>253</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>104</v>
+        <v>234</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>107</v>
+        <v>194</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>104</v>
+        <v>191</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>108</v>
+        <v>69</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>104</v>
+        <v>66</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>109</v>
+        <v>298</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>104</v>
+        <v>295</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>420</v>
+        <v>90</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>421</v>
+        <v>113</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>112</v>
@@ -2307,239 +2307,239 @@
     </row>
     <row r="102" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>113</v>
+        <v>16</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>112</v>
+        <v>11</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>114</v>
+        <v>254</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>112</v>
+        <v>234</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>115</v>
+        <v>17</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>112</v>
+        <v>11</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>116</v>
+        <v>210</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>112</v>
+        <v>207</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>117</v>
+        <v>211</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>112</v>
+        <v>207</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>118</v>
+        <v>39</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>119</v>
+        <v>40</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>120</v>
+        <v>61</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>119</v>
+        <v>60</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>122</v>
+        <v>18</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>119</v>
+        <v>11</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>123</v>
+        <v>19</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>119</v>
+        <v>11</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>124</v>
+        <v>55</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>125</v>
+        <v>47</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>126</v>
+        <v>56</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>125</v>
+        <v>47</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>128</v>
+        <v>195</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>125</v>
+        <v>191</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>129</v>
+        <v>20</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>130</v>
+        <v>11</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>130</v>
+        <v>66</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>132</v>
+        <v>255</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>130</v>
+        <v>234</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>133</v>
+        <v>334</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>130</v>
+        <v>332</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>134</v>
+        <v>256</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>130</v>
+        <v>234</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>135</v>
+        <v>257</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>130</v>
+        <v>234</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>136</v>
+        <v>258</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>130</v>
+        <v>234</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>137</v>
+        <v>21</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>130</v>
+        <v>11</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>138</v>
+        <v>283</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>130</v>
+        <v>281</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>139</v>
+        <v>299</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>130</v>
+        <v>295</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>140</v>
+        <v>300</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>130</v>
+        <v>295</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>142</v>
+        <v>196</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>141</v>
+        <v>71</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>130</v>
+        <v>66</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>143</v>
+        <v>212</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>130</v>
+        <v>207</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>144</v>
+        <v>213</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>130</v>
+        <v>207</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>130</v>
@@ -2547,103 +2547,103 @@
     </row>
     <row r="132" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>146</v>
+        <v>75</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>147</v>
+        <v>76</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>148</v>
+        <v>7</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>149</v>
+        <v>3</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>149</v>
+        <v>76</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>151</v>
+        <v>335</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>149</v>
+        <v>332</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>152</v>
+        <v>301</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>149</v>
+        <v>295</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>153</v>
+        <v>420</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>149</v>
+        <v>112</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>154</v>
+        <v>421</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>149</v>
+        <v>112</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>156</v>
+        <v>226</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>149</v>
+        <v>227</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>157</v>
+        <v>204</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>158</v>
+        <v>205</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>159</v>
+        <v>100</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>158</v>
+        <v>98</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>160</v>
+        <v>101</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>158</v>
+        <v>98</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>162</v>
@@ -2651,47 +2651,47 @@
     </row>
     <row r="145" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>163</v>
+        <v>8</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>162</v>
+        <v>3</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>164</v>
+        <v>214</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>165</v>
+        <v>114</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>162</v>
+        <v>112</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>167</v>
+        <v>78</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>162</v>
+        <v>76</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>162</v>
@@ -2699,167 +2699,167 @@
     </row>
     <row r="151" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>170</v>
+        <v>107</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>162</v>
+        <v>104</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>171</v>
+        <v>345</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>162</v>
+        <v>343</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>172</v>
+        <v>346</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>162</v>
+        <v>343</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>173</v>
+        <v>347</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>162</v>
+        <v>343</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>174</v>
+        <v>348</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>162</v>
+        <v>343</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>176</v>
+        <v>216</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>177</v>
+        <v>115</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>162</v>
+        <v>112</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>178</v>
+        <v>22</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>162</v>
+        <v>11</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>180</v>
+        <v>218</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>181</v>
+        <v>207</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>182</v>
+        <v>259</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>181</v>
+        <v>234</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>183</v>
+        <v>260</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>181</v>
+        <v>234</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>189</v>
+        <v>261</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>187</v>
+        <v>234</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>188</v>
+        <v>262</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>187</v>
+        <v>234</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>190</v>
+        <v>108</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>191</v>
+        <v>104</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>191</v>
@@ -2867,319 +2867,319 @@
     </row>
     <row r="172" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>193</v>
+        <v>228</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>191</v>
+        <v>227</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>195</v>
+        <v>23</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>191</v>
+        <v>11</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>191</v>
+        <v>162</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>197</v>
+        <v>72</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>191</v>
+        <v>66</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>198</v>
+        <v>81</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>191</v>
+        <v>80</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>199</v>
+        <v>82</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>191</v>
+        <v>80</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>200</v>
+        <v>24</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>191</v>
+        <v>11</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>191</v>
+        <v>162</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>202</v>
+        <v>310</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>191</v>
+        <v>309</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>203</v>
+        <v>116</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>191</v>
+        <v>112</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>204</v>
+        <v>329</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>205</v>
+        <v>330</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>206</v>
+        <v>123</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>207</v>
+        <v>119</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>208</v>
+        <v>171</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>210</v>
+        <v>172</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>212</v>
+        <v>174</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>213</v>
+        <v>175</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>214</v>
+        <v>176</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>215</v>
+        <v>177</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>216</v>
+        <v>25</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>207</v>
+        <v>11</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>217</v>
+        <v>178</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>218</v>
+        <v>26</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>207</v>
+        <v>11</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>219</v>
+        <v>302</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>207</v>
+        <v>295</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>220</v>
+        <v>278</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>207</v>
+        <v>279</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>221</v>
+        <v>284</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>207</v>
+        <v>281</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A199" s="3" t="s">
-        <v>222</v>
+      <c r="A199" s="1" t="s">
+        <v>285</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>207</v>
+        <v>281</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>223</v>
+        <v>263</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>224</v>
+        <v>83</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>207</v>
+        <v>80</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>225</v>
+        <v>84</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>207</v>
+        <v>80</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>226</v>
+        <v>317</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>227</v>
+        <v>315</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>228</v>
+        <v>318</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>227</v>
+        <v>315</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>229</v>
+        <v>319</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>227</v>
+        <v>315</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>230</v>
+        <v>320</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>227</v>
+        <v>315</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>231</v>
+        <v>321</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>232</v>
+        <v>315</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>233</v>
+        <v>303</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>232</v>
+        <v>295</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>235</v>
+        <v>117</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>234</v>
+        <v>112</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>236</v>
+        <v>91</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>234</v>
+        <v>88</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>234</v>
@@ -3187,63 +3187,63 @@
     </row>
     <row r="212" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>238</v>
+        <v>92</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>234</v>
+        <v>88</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>240</v>
+        <v>93</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>234</v>
+        <v>88</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>239</v>
+        <v>94</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>234</v>
+        <v>88</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>241</v>
+        <v>200</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>234</v>
+        <v>191</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>242</v>
+        <v>219</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>234</v>
+        <v>207</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>243</v>
+        <v>27</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>234</v>
+        <v>11</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>244</v>
+        <v>336</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>234</v>
+        <v>332</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>234</v>
@@ -3251,95 +3251,95 @@
     </row>
     <row r="220" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>246</v>
+        <v>109</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>234</v>
+        <v>104</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>247</v>
+        <v>128</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>234</v>
+        <v>125</v>
       </c>
     </row>
     <row r="222" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>248</v>
+        <v>287</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>234</v>
+        <v>288</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>249</v>
+        <v>289</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>234</v>
+        <v>288</v>
       </c>
     </row>
     <row r="224" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>234</v>
+        <v>288</v>
       </c>
     </row>
     <row r="225" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>251</v>
+        <v>291</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>234</v>
+        <v>288</v>
       </c>
     </row>
     <row r="226" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>252</v>
+        <v>292</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>234</v>
+        <v>288</v>
       </c>
     </row>
     <row r="227" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>253</v>
+        <v>322</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>234</v>
+        <v>315</v>
       </c>
     </row>
     <row r="228" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>254</v>
+        <v>73</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>234</v>
+        <v>66</v>
       </c>
     </row>
     <row r="229" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>255</v>
+        <v>74</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>234</v>
+        <v>66</v>
       </c>
     </row>
     <row r="230" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>256</v>
+        <v>184</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>234</v>
+        <v>181</v>
       </c>
     </row>
     <row r="231" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>234</v>
@@ -3347,135 +3347,135 @@
     </row>
     <row r="232" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>258</v>
+        <v>135</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>234</v>
+        <v>130</v>
       </c>
     </row>
     <row r="233" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>259</v>
+        <v>220</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>234</v>
+        <v>207</v>
       </c>
     </row>
     <row r="234" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>260</v>
+        <v>231</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="235" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>261</v>
+        <v>233</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="236" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>262</v>
+        <v>28</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>234</v>
+        <v>11</v>
       </c>
     </row>
     <row r="237" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>263</v>
+        <v>304</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>234</v>
+        <v>295</v>
       </c>
     </row>
     <row r="238" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>264</v>
+        <v>29</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>234</v>
+        <v>11</v>
       </c>
     </row>
     <row r="239" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>265</v>
+        <v>155</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>234</v>
+        <v>149</v>
       </c>
     </row>
     <row r="240" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>266</v>
+        <v>337</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>234</v>
+        <v>332</v>
       </c>
     </row>
     <row r="241" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>267</v>
+        <v>30</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>234</v>
+        <v>11</v>
       </c>
     </row>
     <row r="242" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>268</v>
+        <v>136</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>234</v>
+        <v>130</v>
       </c>
     </row>
     <row r="243" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>269</v>
+        <v>221</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>234</v>
+        <v>207</v>
       </c>
     </row>
     <row r="244" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A244" s="1" t="s">
-        <v>270</v>
+      <c r="A244" s="3" t="s">
+        <v>222</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>234</v>
+        <v>207</v>
       </c>
     </row>
     <row r="245" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>271</v>
+        <v>62</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>234</v>
+        <v>60</v>
       </c>
     </row>
     <row r="246" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>272</v>
+        <v>323</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>234</v>
+        <v>315</v>
       </c>
     </row>
     <row r="247" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>273</v>
+        <v>179</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>234</v>
+        <v>162</v>
       </c>
     </row>
     <row r="248" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>234</v>
@@ -3483,183 +3483,183 @@
     </row>
     <row r="249" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>275</v>
+        <v>31</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>276</v>
+        <v>11</v>
       </c>
     </row>
     <row r="250" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>277</v>
+        <v>57</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>276</v>
+        <v>47</v>
       </c>
     </row>
     <row r="251" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>279</v>
+        <v>234</v>
       </c>
     </row>
     <row r="252" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>280</v>
+        <v>223</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>281</v>
+        <v>207</v>
       </c>
     </row>
     <row r="253" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>282</v>
+        <v>32</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>281</v>
+        <v>11</v>
       </c>
     </row>
     <row r="254" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>281</v>
+        <v>234</v>
       </c>
     </row>
     <row r="255" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>284</v>
+        <v>338</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>281</v>
+        <v>332</v>
       </c>
     </row>
     <row r="256" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>285</v>
+        <v>33</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>281</v>
+        <v>11</v>
       </c>
     </row>
     <row r="257" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>286</v>
+        <v>41</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>281</v>
+        <v>40</v>
       </c>
     </row>
     <row r="258" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>287</v>
+        <v>324</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>288</v>
+        <v>315</v>
       </c>
     </row>
     <row r="259" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>288</v>
+        <v>234</v>
       </c>
     </row>
     <row r="260" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>288</v>
+        <v>234</v>
       </c>
     </row>
     <row r="261" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>291</v>
+        <v>63</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>288</v>
+        <v>60</v>
       </c>
     </row>
     <row r="262" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>292</v>
+        <v>34</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>288</v>
+        <v>11</v>
       </c>
     </row>
     <row r="263" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>293</v>
+        <v>35</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>288</v>
+        <v>11</v>
       </c>
     </row>
     <row r="264" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>294</v>
+        <v>45</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>295</v>
+        <v>44</v>
       </c>
     </row>
     <row r="265" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="266" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>297</v>
+        <v>272</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>295</v>
+        <v>234</v>
       </c>
     </row>
     <row r="267" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>298</v>
+        <v>157</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>295</v>
+        <v>158</v>
       </c>
     </row>
     <row r="268" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>299</v>
+        <v>137</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>295</v>
+        <v>130</v>
       </c>
     </row>
     <row r="269" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>300</v>
+        <v>138</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>295</v>
+        <v>130</v>
       </c>
     </row>
     <row r="270" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>301</v>
+        <v>58</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>295</v>
+        <v>47</v>
       </c>
     </row>
     <row r="271" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B271" s="1" t="s">
         <v>295</v>
@@ -3667,7 +3667,7 @@
     </row>
     <row r="272" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B272" s="1" t="s">
         <v>295</v>
@@ -3675,7 +3675,7 @@
     </row>
     <row r="273" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B273" s="1" t="s">
         <v>295</v>
@@ -3683,314 +3683,314 @@
     </row>
     <row r="274" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>305</v>
+        <v>139</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>295</v>
+        <v>130</v>
       </c>
     </row>
     <row r="275" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>306</v>
+        <v>140</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>295</v>
+        <v>130</v>
       </c>
     </row>
     <row r="276" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>307</v>
+        <v>142</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>295</v>
+        <v>130</v>
       </c>
     </row>
     <row r="277" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>308</v>
+        <v>141</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>309</v>
+        <v>130</v>
       </c>
     </row>
     <row r="278" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>310</v>
+        <v>143</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>309</v>
+        <v>130</v>
       </c>
     </row>
     <row r="279" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>311</v>
+        <v>144</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>312</v>
+        <v>130</v>
       </c>
     </row>
     <row r="280" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>313</v>
+        <v>42</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>312</v>
+        <v>40</v>
       </c>
     </row>
     <row r="281" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>314</v>
+        <v>110</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>315</v>
+        <v>104</v>
       </c>
     </row>
     <row r="282" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
-        <v>316</v>
+        <v>230</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>315</v>
+        <v>227</v>
       </c>
     </row>
     <row r="283" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>317</v>
+        <v>95</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>315</v>
+        <v>88</v>
       </c>
     </row>
     <row r="284" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>318</v>
+        <v>96</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>315</v>
+        <v>88</v>
       </c>
     </row>
     <row r="285" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>319</v>
+        <v>97</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>315</v>
+        <v>88</v>
       </c>
     </row>
     <row r="286" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>320</v>
+        <v>185</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>315</v>
+        <v>181</v>
       </c>
     </row>
     <row r="287" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>321</v>
+        <v>340</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>315</v>
+        <v>341</v>
       </c>
     </row>
     <row r="288" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
-        <v>322</v>
+        <v>273</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>315</v>
+        <v>234</v>
       </c>
     </row>
     <row r="289" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>323</v>
+        <v>9</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>315</v>
+        <v>3</v>
       </c>
     </row>
     <row r="290" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>324</v>
+        <v>64</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>315</v>
+        <v>60</v>
       </c>
     </row>
     <row r="291" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
     </row>
     <row r="292" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>326</v>
+        <v>201</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>327</v>
+        <v>191</v>
       </c>
     </row>
     <row r="293" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>328</v>
+        <v>274</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>327</v>
+        <v>234</v>
       </c>
     </row>
     <row r="294" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>329</v>
+        <v>224</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>330</v>
+        <v>207</v>
       </c>
     </row>
     <row r="295" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>331</v>
+        <v>85</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>332</v>
+        <v>80</v>
       </c>
     </row>
     <row r="296" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
     </row>
     <row r="297" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>334</v>
+        <v>102</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>332</v>
+        <v>98</v>
       </c>
     </row>
     <row r="298" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>335</v>
+        <v>145</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>332</v>
+        <v>130</v>
       </c>
     </row>
     <row r="299" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>336</v>
+        <v>286</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>332</v>
+        <v>281</v>
       </c>
     </row>
     <row r="300" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
     </row>
     <row r="301" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>338</v>
+        <v>36</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>332</v>
+        <v>11</v>
       </c>
     </row>
     <row r="302" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
     </row>
     <row r="303" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B303" s="1" t="s">
-        <v>341</v>
+        <v>350</v>
+      </c>
+      <c r="B303" s="3" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="304" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>342</v>
+        <v>202</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>343</v>
+        <v>191</v>
       </c>
     </row>
     <row r="305" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>344</v>
+        <v>37</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>343</v>
+        <v>11</v>
       </c>
     </row>
     <row r="306" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
-        <v>345</v>
+        <v>203</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>343</v>
+        <v>191</v>
       </c>
     </row>
     <row r="307" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>346</v>
+        <v>225</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>343</v>
+        <v>207</v>
       </c>
     </row>
     <row r="308" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>347</v>
+        <v>159</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>343</v>
+        <v>158</v>
       </c>
     </row>
     <row r="309" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
-        <v>348</v>
+        <v>160</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>343</v>
+        <v>158</v>
       </c>
     </row>
     <row r="310" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>349</v>
+        <v>86</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>343</v>
+        <v>80</v>
       </c>
     </row>
     <row r="311" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
-        <v>351</v>
+        <v>38</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>343</v>
+        <v>11</v>
       </c>
     </row>
     <row r="312" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="B312" s="3" t="s">
-        <v>343</v>
+        <v>156</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="313" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
